--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.59657533333333</v>
+        <v>8.382531</v>
       </c>
       <c r="H2">
-        <v>46.789726</v>
+        <v>25.147593</v>
       </c>
       <c r="I2">
-        <v>0.4757744772251148</v>
+        <v>0.3278601051951505</v>
       </c>
       <c r="J2">
-        <v>0.475774477225115</v>
+        <v>0.3278601051951506</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.779764</v>
+        <v>11.319211</v>
       </c>
       <c r="N2">
-        <v>35.339292</v>
+        <v>33.957633</v>
       </c>
       <c r="O2">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="P2">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="Q2">
-        <v>183.723976634888</v>
+        <v>94.88363710304101</v>
       </c>
       <c r="R2">
-        <v>1653.515789713992</v>
+        <v>853.9527339273691</v>
       </c>
       <c r="S2">
-        <v>0.04893092812472107</v>
+        <v>0.0325312113969711</v>
       </c>
       <c r="T2">
-        <v>0.04893092812472109</v>
+        <v>0.03253121139697111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.59657533333333</v>
+        <v>8.382531</v>
       </c>
       <c r="H3">
-        <v>46.789726</v>
+        <v>25.147593</v>
       </c>
       <c r="I3">
-        <v>0.4757744772251148</v>
+        <v>0.3278601051951505</v>
       </c>
       <c r="J3">
-        <v>0.475774477225115</v>
+        <v>0.3278601051951506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>131.524056</v>
       </c>
       <c r="O3">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="P3">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="Q3">
-        <v>683.774949183184</v>
+        <v>367.501492221912</v>
       </c>
       <c r="R3">
-        <v>6153.974542648656</v>
+        <v>3307.513429997208</v>
       </c>
       <c r="S3">
-        <v>0.182108745438584</v>
+        <v>0.1259992670726804</v>
       </c>
       <c r="T3">
-        <v>0.1821087454385841</v>
+        <v>0.1259992670726804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.59657533333333</v>
+        <v>8.382531</v>
       </c>
       <c r="H4">
-        <v>46.789726</v>
+        <v>25.147593</v>
       </c>
       <c r="I4">
-        <v>0.4757744772251148</v>
+        <v>0.3278601051951505</v>
       </c>
       <c r="J4">
-        <v>0.475774477225115</v>
+        <v>0.3278601051951506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>176.754356</v>
       </c>
       <c r="O4">
-        <v>0.5143924598250619</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="P4">
-        <v>0.514392459825062</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="Q4">
-        <v>918.9208762829397</v>
+        <v>493.8829561850121</v>
       </c>
       <c r="R4">
-        <v>8270.287886546457</v>
+        <v>4444.946605665109</v>
       </c>
       <c r="S4">
-        <v>0.2447348036618097</v>
+        <v>0.169329626725499</v>
       </c>
       <c r="T4">
-        <v>0.2447348036618098</v>
+        <v>0.1693296267254991</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>19.198594</v>
       </c>
       <c r="I5">
-        <v>0.1952180917624358</v>
+        <v>0.2503004183517279</v>
       </c>
       <c r="J5">
-        <v>0.1952180917624358</v>
+        <v>0.250300418351728</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.779764</v>
+        <v>11.319211</v>
       </c>
       <c r="N5">
-        <v>35.339292</v>
+        <v>33.957633</v>
       </c>
       <c r="O5">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="P5">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="Q5">
-        <v>75.384968817272</v>
+        <v>72.43764546311134</v>
       </c>
       <c r="R5">
-        <v>678.464719355448</v>
+        <v>651.938809168002</v>
       </c>
       <c r="S5">
-        <v>0.02007716444224746</v>
+        <v>0.02483551884821028</v>
       </c>
       <c r="T5">
-        <v>0.02007716444224746</v>
+        <v>0.02483551884821029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>19.198594</v>
       </c>
       <c r="I6">
-        <v>0.1952180917624358</v>
+        <v>0.2503004183517279</v>
       </c>
       <c r="J6">
-        <v>0.1952180917624358</v>
+        <v>0.250300418351728</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>131.524056</v>
       </c>
       <c r="O6">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="P6">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="Q6">
         <v>280.564105819696</v>
@@ -818,10 +818,10 @@
         <v>2525.076952377264</v>
       </c>
       <c r="S6">
-        <v>0.07472221289615431</v>
+        <v>0.09619245757738958</v>
       </c>
       <c r="T6">
-        <v>0.07472221289615434</v>
+        <v>0.09619245757738959</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>19.198594</v>
       </c>
       <c r="I7">
-        <v>0.1952180917624358</v>
+        <v>0.2503004183517279</v>
       </c>
       <c r="J7">
-        <v>0.1952180917624358</v>
+        <v>0.250300418351728</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>176.754356</v>
       </c>
       <c r="O7">
-        <v>0.5143924598250619</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="P7">
-        <v>0.514392459825062</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="Q7">
         <v>377.048346508385</v>
@@ -880,10 +880,10 @@
         <v>3393.435118575464</v>
       </c>
       <c r="S7">
-        <v>0.100418714424034</v>
+        <v>0.1292724419261281</v>
       </c>
       <c r="T7">
-        <v>0.100418714424034</v>
+        <v>0.1292724419261281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>32.356018</v>
       </c>
       <c r="I8">
-        <v>0.3290074310124493</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="J8">
-        <v>0.3290074310124493</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.779764</v>
+        <v>11.319211</v>
       </c>
       <c r="N8">
-        <v>35.339292</v>
+        <v>33.957633</v>
       </c>
       <c r="O8">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="P8">
-        <v>0.1028447940505417</v>
+        <v>0.09922284194232082</v>
       </c>
       <c r="Q8">
-        <v>127.048752006584</v>
+        <v>122.0815316205993</v>
       </c>
       <c r="R8">
-        <v>1143.438768059256</v>
+        <v>1098.733784585394</v>
       </c>
       <c r="S8">
-        <v>0.03383670148357315</v>
+        <v>0.04185611169713944</v>
       </c>
       <c r="T8">
-        <v>0.03383670148357316</v>
+        <v>0.04185611169713944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>32.356018</v>
       </c>
       <c r="I9">
-        <v>0.3290074310124493</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="J9">
-        <v>0.3290074310124493</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>131.524056</v>
       </c>
       <c r="O9">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="P9">
-        <v>0.3827627461243964</v>
+        <v>0.3843080175847637</v>
       </c>
       <c r="Q9">
         <v>472.843858152112</v>
@@ -1004,10 +1004,10 @@
         <v>4255.594723369008</v>
       </c>
       <c r="S9">
-        <v>0.125931787789658</v>
+        <v>0.1621162929346937</v>
       </c>
       <c r="T9">
-        <v>0.125931787789658</v>
+        <v>0.1621162929346937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>32.356018</v>
       </c>
       <c r="I10">
-        <v>0.3290074310124493</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="J10">
-        <v>0.3290074310124493</v>
+        <v>0.4218394764531215</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>176.754356</v>
       </c>
       <c r="O10">
-        <v>0.5143924598250619</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="P10">
-        <v>0.514392459825062</v>
+        <v>0.5164691404729155</v>
       </c>
       <c r="Q10">
         <v>635.4519027016009</v>
@@ -1066,10 +1066,10 @@
         <v>5719.067124314409</v>
       </c>
       <c r="S10">
-        <v>0.1692389417392181</v>
+        <v>0.2178670718212883</v>
       </c>
       <c r="T10">
-        <v>0.1692389417392182</v>
+        <v>0.2178670718212883</v>
       </c>
     </row>
   </sheetData>
